--- a/Code/Results/Cases/Case_4_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.415636884831429</v>
+        <v>1.872960248610809</v>
       </c>
       <c r="C2">
-        <v>0.6244872359614533</v>
+        <v>0.1963555815017912</v>
       </c>
       <c r="D2">
-        <v>0.199979676959515</v>
+        <v>0.07765566356903264</v>
       </c>
       <c r="E2">
-        <v>0.0351554448111715</v>
+        <v>0.07088614255006354</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.853439826339354</v>
+        <v>1.786701365424705</v>
       </c>
       <c r="H2">
-        <v>1.061943911748386</v>
+        <v>1.498567188937955</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1497174507121315</v>
+        <v>0.1918398389711626</v>
       </c>
       <c r="M2">
-        <v>0.5387657426524868</v>
+        <v>0.3582438681843385</v>
       </c>
       <c r="N2">
-        <v>0.9880518536275744</v>
+        <v>1.931241967203817</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.962924076409536</v>
+        <v>1.762554893034746</v>
       </c>
       <c r="C3">
-        <v>0.5440114130500433</v>
+        <v>0.1728416719970767</v>
       </c>
       <c r="D3">
-        <v>0.1725491603543077</v>
+        <v>0.0705480675152188</v>
       </c>
       <c r="E3">
-        <v>0.03483018004168059</v>
+        <v>0.07081749018032824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.67596328886205</v>
+        <v>1.753861651198122</v>
       </c>
       <c r="H3">
-        <v>0.9882234819078519</v>
+        <v>1.49012166938536</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1354770075202225</v>
+        <v>0.1894037928128114</v>
       </c>
       <c r="M3">
-        <v>0.4698748486488569</v>
+        <v>0.342196095387223</v>
       </c>
       <c r="N3">
-        <v>1.037365792218367</v>
+        <v>1.950600722405447</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.689260262232096</v>
+        <v>1.695823267415335</v>
       </c>
       <c r="C4">
-        <v>0.4950872156573496</v>
+        <v>0.1583462071039321</v>
       </c>
       <c r="D4">
-        <v>0.1560012929017347</v>
+        <v>0.06622556633037391</v>
       </c>
       <c r="E4">
-        <v>0.03463968505820958</v>
+        <v>0.0707766522877975</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.571325246832856</v>
+        <v>1.734900209384676</v>
       </c>
       <c r="H4">
-        <v>0.9452771885277969</v>
+        <v>1.485763588558569</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1269647289804894</v>
+        <v>0.1880063448771594</v>
       </c>
       <c r="M4">
-        <v>0.4282983349840492</v>
+        <v>0.3325507831124312</v>
       </c>
       <c r="N4">
-        <v>1.069377265729067</v>
+        <v>1.963164353640742</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.578680366749325</v>
+        <v>1.668894504944774</v>
       </c>
       <c r="C5">
-        <v>0.475248219272828</v>
+        <v>0.1524243001255741</v>
       </c>
       <c r="D5">
-        <v>0.1493219194247217</v>
+        <v>0.06447441843340584</v>
       </c>
       <c r="E5">
-        <v>0.03456412176448964</v>
+        <v>0.07076033887781596</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.529667834034512</v>
+        <v>1.727473946864194</v>
       </c>
       <c r="H5">
-        <v>0.9283096215802118</v>
+        <v>1.484195114236513</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1235488688579878</v>
+        <v>0.1874615761136624</v>
       </c>
       <c r="M5">
-        <v>0.4115152150699544</v>
+        <v>0.3286724182590746</v>
       </c>
       <c r="N5">
-        <v>1.082837881324778</v>
+        <v>1.968454065278294</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.560371523422646</v>
+        <v>1.664438974683151</v>
       </c>
       <c r="C6">
-        <v>0.4719592041894032</v>
+        <v>0.1514400628153965</v>
       </c>
       <c r="D6">
-        <v>0.1482164021730625</v>
+        <v>0.06418425972842101</v>
       </c>
       <c r="E6">
-        <v>0.0345516923665663</v>
+        <v>0.07075764981543298</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.522807107428434</v>
+        <v>1.726258934168214</v>
       </c>
       <c r="H6">
-        <v>0.925523012688501</v>
+        <v>1.48394718402227</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.122984721569658</v>
+        <v>0.1873726092647416</v>
       </c>
       <c r="M6">
-        <v>0.4087374206325265</v>
+        <v>0.3280315659928092</v>
       </c>
       <c r="N6">
-        <v>1.085097559658422</v>
+        <v>1.969342670265775</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.687765314866112</v>
+        <v>1.695459025449168</v>
       </c>
       <c r="C7">
-        <v>0.4948192943877245</v>
+        <v>0.1582664029221803</v>
       </c>
       <c r="D7">
-        <v>0.1559109660424838</v>
+        <v>0.06620190820466121</v>
       </c>
       <c r="E7">
-        <v>0.03463865793909537</v>
+        <v>0.07077643095253183</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.570759592591799</v>
+        <v>1.734798840950248</v>
       </c>
       <c r="H7">
-        <v>0.9450462608700718</v>
+        <v>1.485741596303086</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1269184536660433</v>
+        <v>0.187998897932502</v>
       </c>
       <c r="M7">
-        <v>0.4280713734723776</v>
+        <v>0.3324982670516263</v>
       </c>
       <c r="N7">
-        <v>1.069557142408755</v>
+        <v>1.963235005018809</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.258559059840593</v>
+        <v>1.834672275008927</v>
       </c>
       <c r="C8">
-        <v>0.5966222202893334</v>
+        <v>0.1882597724520281</v>
       </c>
       <c r="D8">
-        <v>0.1904541745107053</v>
+        <v>0.07519623803088393</v>
       </c>
       <c r="E8">
-        <v>0.03504121874022292</v>
+        <v>0.07086219687499362</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.791279803769612</v>
+        <v>1.775127692257485</v>
       </c>
       <c r="H8">
-        <v>1.036012776770974</v>
+        <v>1.495483053966154</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1447560348136818</v>
+        <v>0.1909794791072414</v>
       </c>
       <c r="M8">
-        <v>0.5148482568206418</v>
+        <v>0.3526673128223052</v>
       </c>
       <c r="N8">
-        <v>1.004683168084682</v>
+        <v>1.937776071206017</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.419137222167365</v>
+        <v>2.116126155151392</v>
       </c>
       <c r="C9">
-        <v>0.801378328643267</v>
+        <v>0.2466361843429468</v>
       </c>
       <c r="D9">
-        <v>0.2610331145621387</v>
+        <v>0.09317191867349095</v>
       </c>
       <c r="E9">
-        <v>0.0359168829213079</v>
+        <v>0.07104093407083534</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.263404160562885</v>
+        <v>1.863832824641207</v>
       </c>
       <c r="H9">
-        <v>1.235268368835904</v>
+        <v>1.521182239692678</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1818321829828307</v>
+        <v>0.1976055556390293</v>
       </c>
       <c r="M9">
-        <v>0.6918582032919218</v>
+        <v>0.3938790778607029</v>
       </c>
       <c r="N9">
-        <v>0.89220426286915</v>
+        <v>1.893241385440454</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.308076559822496</v>
+        <v>2.328180379766422</v>
       </c>
       <c r="C10">
-        <v>0.9568956308089582</v>
+        <v>0.2892861966680016</v>
       </c>
       <c r="D10">
-        <v>0.3154027216030357</v>
+        <v>0.1065968026941846</v>
       </c>
       <c r="E10">
-        <v>0.03663411903193659</v>
+        <v>0.07117886622272618</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.642743856367446</v>
+        <v>1.934991037237126</v>
       </c>
       <c r="H10">
-        <v>1.398249721227387</v>
+        <v>1.544131254348315</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.210755459212649</v>
+        <v>0.2029525480059249</v>
       </c>
       <c r="M10">
-        <v>0.8278053248831228</v>
+        <v>0.4251862119236094</v>
       </c>
       <c r="N10">
-        <v>0.8200941259362864</v>
+        <v>1.863829369761532</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.723209404167164</v>
+        <v>2.425820301383339</v>
       </c>
       <c r="C11">
-        <v>1.029256779839926</v>
+        <v>0.3086434971294807</v>
       </c>
       <c r="D11">
-        <v>0.3408843244952351</v>
+        <v>0.1127542338271894</v>
       </c>
       <c r="E11">
-        <v>0.03698225674973177</v>
+        <v>0.07124309298350173</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.824497737400833</v>
+        <v>1.968689784792048</v>
       </c>
       <c r="H11">
-        <v>1.47699209452631</v>
+        <v>1.555465138569048</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2243823751513503</v>
+        <v>0.2054896377184008</v>
       </c>
       <c r="M11">
-        <v>0.891375367271479</v>
+        <v>0.4396559449965665</v>
       </c>
       <c r="N11">
-        <v>0.7899746542761719</v>
+        <v>1.851172032167781</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.882228847638601</v>
+        <v>2.462964716851957</v>
       </c>
       <c r="C12">
-        <v>1.056939474003372</v>
+        <v>0.3159676751470784</v>
       </c>
       <c r="D12">
-        <v>0.3506604742805592</v>
+        <v>0.1150933327982102</v>
       </c>
       <c r="E12">
-        <v>0.03711781789108848</v>
+        <v>0.07126763008881021</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.894850058048462</v>
+        <v>1.981643707843745</v>
       </c>
       <c r="H12">
-        <v>1.507567407907345</v>
+        <v>1.559886369278587</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2296199037853768</v>
+        <v>0.2064654627941138</v>
       </c>
       <c r="M12">
-        <v>0.9157384481370983</v>
+        <v>0.445168283322289</v>
       </c>
       <c r="N12">
-        <v>0.7789940416144461</v>
+        <v>1.846483337284631</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.847895611428953</v>
+        <v>2.454957407703205</v>
       </c>
       <c r="C13">
-        <v>1.050964159206472</v>
+        <v>0.3143905437206342</v>
       </c>
       <c r="D13">
-        <v>0.3485490328555727</v>
+        <v>0.1145892335671022</v>
       </c>
       <c r="E13">
-        <v>0.03708844612542705</v>
+        <v>0.0712623359382647</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.879627004842263</v>
+        <v>1.978845237241586</v>
       </c>
       <c r="H13">
-        <v>1.50094712672859</v>
+        <v>1.558928414007227</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2284883007227023</v>
+        <v>0.2062546300950174</v>
       </c>
       <c r="M13">
-        <v>0.9104777730940015</v>
+        <v>0.4439796335430657</v>
       </c>
       <c r="N13">
-        <v>0.781339333476005</v>
+        <v>1.847488482051247</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.736253916564465</v>
+        <v>2.428872774370518</v>
       </c>
       <c r="C14">
-        <v>1.031528314659568</v>
+        <v>0.3092461799830915</v>
       </c>
       <c r="D14">
-        <v>0.341685953795789</v>
+        <v>0.1129465233594686</v>
       </c>
       <c r="E14">
-        <v>0.03699333100229563</v>
+        <v>0.07124510732361244</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.830253811856352</v>
+        <v>1.969751634096582</v>
       </c>
       <c r="H14">
-        <v>1.479491773638387</v>
+        <v>1.555826279533164</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2248116598915857</v>
+        <v>0.2055696169681482</v>
       </c>
       <c r="M14">
-        <v>0.8933736498342029</v>
+        <v>0.4401087866577384</v>
       </c>
       <c r="N14">
-        <v>0.7890625130023778</v>
+        <v>1.850784195952571</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.668115540754229</v>
+        <v>2.412917399362811</v>
       </c>
       <c r="C15">
-        <v>1.019661468137485</v>
+        <v>0.3060943369588358</v>
       </c>
       <c r="D15">
-        <v>0.3374992469990161</v>
+        <v>0.1119412864023275</v>
       </c>
       <c r="E15">
-        <v>0.03693557493322341</v>
+        <v>0.07123458249396908</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.800216576972304</v>
+        <v>1.964206722680188</v>
       </c>
       <c r="H15">
-        <v>1.466451425657311</v>
+        <v>1.553942997992721</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2225699908497205</v>
+        <v>0.2051519918673108</v>
       </c>
       <c r="M15">
-        <v>0.8829360543417764</v>
+        <v>0.4377420796720557</v>
       </c>
       <c r="N15">
-        <v>0.793849776536824</v>
+        <v>1.852816521943218</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.28118541203321</v>
+        <v>2.321823141434436</v>
       </c>
       <c r="C16">
-        <v>0.9522031896567</v>
+        <v>0.2880202898515449</v>
       </c>
       <c r="D16">
-        <v>0.3137540860130912</v>
+        <v>0.1061954282818647</v>
       </c>
       <c r="E16">
-        <v>0.03661185515146759</v>
+        <v>0.07117469889450856</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.631067625777263</v>
+        <v>1.932815639859996</v>
       </c>
       <c r="H16">
-        <v>1.393204204343903</v>
+        <v>1.543408616256528</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2098751665552498</v>
+        <v>0.2027888525905723</v>
       </c>
       <c r="M16">
-        <v>0.823689105890125</v>
+        <v>0.4242451835889085</v>
       </c>
       <c r="N16">
-        <v>0.8221197307278985</v>
+        <v>1.864671133756552</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.046752257001174</v>
+        <v>2.266241707566451</v>
       </c>
       <c r="C17">
-        <v>0.9112661869314991</v>
+        <v>0.2769213385404612</v>
       </c>
       <c r="D17">
-        <v>0.2993918190584139</v>
+        <v>0.1026835540840523</v>
       </c>
       <c r="E17">
-        <v>0.03641924948453212</v>
+        <v>0.07113834353024107</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.529791414786445</v>
+        <v>1.913899836994744</v>
       </c>
       <c r="H17">
-        <v>1.349512119703405</v>
+        <v>1.537175679572755</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.202214164165639</v>
+        <v>0.2013659816919926</v>
       </c>
       <c r="M17">
-        <v>0.7878136826515032</v>
+        <v>0.4160237903488948</v>
       </c>
       <c r="N17">
-        <v>0.8401760174572743</v>
+        <v>1.872128910002701</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.91290613661107</v>
+        <v>2.234383291776169</v>
       </c>
       <c r="C18">
-        <v>0.8878690868413628</v>
+        <v>0.2705333130896292</v>
       </c>
       <c r="D18">
-        <v>0.2912002014924582</v>
+        <v>0.1006683491301317</v>
       </c>
       <c r="E18">
-        <v>0.03631048536323433</v>
+        <v>0.07111757208102532</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.47239134926977</v>
+        <v>1.903144899113016</v>
       </c>
       <c r="H18">
-        <v>1.324808278318528</v>
+        <v>1.533674786427866</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1978513040127439</v>
+        <v>0.2005574387031288</v>
       </c>
       <c r="M18">
-        <v>0.7673388236501495</v>
+        <v>0.4113165078095662</v>
       </c>
       <c r="N18">
-        <v>0.8508115062288084</v>
+        <v>1.876486385364231</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.867751073886325</v>
+        <v>2.22361552918693</v>
       </c>
       <c r="C19">
-        <v>0.879971402890277</v>
+        <v>0.2683697044082578</v>
       </c>
       <c r="D19">
-        <v>0.2884379970514459</v>
+        <v>0.09998684302671279</v>
       </c>
       <c r="E19">
-        <v>0.03627398995709274</v>
+        <v>0.07111056304532681</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.453097084798912</v>
+        <v>1.899524861568437</v>
       </c>
       <c r="H19">
-        <v>1.316514552354192</v>
+        <v>1.532503870698235</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1963813146459188</v>
+        <v>0.2002853717211082</v>
       </c>
       <c r="M19">
-        <v>0.7604326248424158</v>
+        <v>0.4097263805779008</v>
       </c>
       <c r="N19">
-        <v>0.85445432848352</v>
+        <v>1.877973408886447</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.071603371406184</v>
+        <v>2.272146994943625</v>
       </c>
       <c r="C20">
-        <v>0.9156082699548165</v>
+        <v>0.2781032730786137</v>
       </c>
       <c r="D20">
-        <v>0.3009134160679139</v>
+        <v>0.1030569081096218</v>
       </c>
       <c r="E20">
-        <v>0.03643953994935423</v>
+        <v>0.07114219919391829</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.54048293357954</v>
+        <v>1.91590051287352</v>
       </c>
       <c r="H20">
-        <v>1.354118402742756</v>
+        <v>1.537830474154362</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2030251170482842</v>
+        <v>0.2015164286169266</v>
       </c>
       <c r="M20">
-        <v>0.7916158624303762</v>
+        <v>0.4168967508619374</v>
       </c>
       <c r="N20">
-        <v>0.8382277553033148</v>
+        <v>1.871327979873485</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.768994113928841</v>
+        <v>2.436529831340238</v>
       </c>
       <c r="C21">
-        <v>1.037229042109487</v>
+        <v>0.3107573644596471</v>
       </c>
       <c r="D21">
-        <v>0.3436981993501576</v>
+        <v>0.1134288246174577</v>
       </c>
       <c r="E21">
-        <v>0.0370211622533354</v>
+        <v>0.07125016190445699</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.84471273299738</v>
+        <v>1.972417394217956</v>
       </c>
       <c r="H21">
-        <v>1.485772352932059</v>
+        <v>1.556733935550568</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2258893960867141</v>
+        <v>0.205770412330196</v>
       </c>
       <c r="M21">
-        <v>0.898389298546526</v>
+        <v>0.4412448520789809</v>
       </c>
       <c r="N21">
-        <v>0.7867821567617597</v>
+        <v>1.849813328505952</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.235526987871992</v>
+        <v>2.544956752231542</v>
       </c>
       <c r="C22">
-        <v>1.118381423879356</v>
+        <v>0.3320638383926848</v>
       </c>
       <c r="D22">
-        <v>0.3724105177404624</v>
+        <v>0.1202507623853677</v>
       </c>
       <c r="E22">
-        <v>0.03742336935682111</v>
+        <v>0.0713219811797785</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.052555034096287</v>
+        <v>2.010479936050842</v>
       </c>
       <c r="H22">
-        <v>1.576283844394453</v>
+        <v>1.569842654815687</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2412886222785886</v>
+        <v>0.2086385724181525</v>
       </c>
       <c r="M22">
-        <v>0.9698887781571273</v>
+        <v>0.4573499751690093</v>
       </c>
       <c r="N22">
-        <v>0.7556586716348832</v>
+        <v>1.836360808887768</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.985446743304294</v>
+        <v>2.486995951837116</v>
       </c>
       <c r="C23">
-        <v>1.074898477658991</v>
+        <v>0.320695237231007</v>
       </c>
       <c r="D23">
-        <v>0.3570105781918471</v>
+        <v>0.1166057485665135</v>
       </c>
       <c r="E23">
-        <v>0.03720646259198901</v>
+        <v>0.07128353366432716</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.940726305930411</v>
+        <v>1.990061624783237</v>
       </c>
       <c r="H23">
-        <v>1.527532301770094</v>
+        <v>1.562777025917683</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2330244668072226</v>
+        <v>0.2070997262322862</v>
       </c>
       <c r="M23">
-        <v>0.931555661469055</v>
+        <v>0.4487367164310001</v>
       </c>
       <c r="N23">
-        <v>0.7720268621759416</v>
+        <v>1.843484824483163</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.060365297751105</v>
+        <v>2.269476915314044</v>
       </c>
       <c r="C24">
-        <v>0.9136447875791589</v>
+        <v>0.2775689425875782</v>
       </c>
       <c r="D24">
-        <v>0.3002252996418093</v>
+        <v>0.1028881028745587</v>
       </c>
       <c r="E24">
-        <v>0.03643036054484039</v>
+        <v>0.07114045564452898</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.535646743419449</v>
+        <v>1.914995633650364</v>
       </c>
       <c r="H24">
-        <v>1.352034615615764</v>
+        <v>1.537534184594307</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2026583565481417</v>
+        <v>0.20144838202215</v>
       </c>
       <c r="M24">
-        <v>0.7898964316047952</v>
+        <v>0.4165020252941005</v>
       </c>
       <c r="N24">
-        <v>0.8391077742110227</v>
+        <v>1.871689862697714</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.099681041964232</v>
+        <v>2.03906833187159</v>
       </c>
       <c r="C25">
-        <v>0.7452495173693023</v>
+        <v>0.2308879563119319</v>
       </c>
       <c r="D25">
-        <v>0.241559913081332</v>
+        <v>0.08827159958416075</v>
       </c>
       <c r="E25">
-        <v>0.03566875121886515</v>
+        <v>0.07099143290356569</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.13063536878397</v>
+        <v>1.838793307157516</v>
       </c>
       <c r="H25">
-        <v>1.178757506465246</v>
+        <v>1.513518984871752</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1715384174456673</v>
+        <v>0.1957291340121898</v>
       </c>
       <c r="M25">
-        <v>0.6430731410892818</v>
+        <v>0.3825507504169465</v>
       </c>
       <c r="N25">
-        <v>0.920906510130429</v>
+        <v>1.90470993485097</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.872960248610809</v>
+        <v>3.415636884831486</v>
       </c>
       <c r="C2">
-        <v>0.1963555815017912</v>
+        <v>0.6244872359613964</v>
       </c>
       <c r="D2">
-        <v>0.07765566356903264</v>
+        <v>0.1999796769594155</v>
       </c>
       <c r="E2">
-        <v>0.07088614255006354</v>
+        <v>0.03515544481117328</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.786701365424705</v>
+        <v>1.853439826339411</v>
       </c>
       <c r="H2">
-        <v>1.498567188937955</v>
+        <v>1.061943911748273</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1918398389711626</v>
+        <v>0.1497174507121386</v>
       </c>
       <c r="M2">
-        <v>0.3582438681843385</v>
+        <v>0.5387657426524797</v>
       </c>
       <c r="N2">
-        <v>1.931241967203817</v>
+        <v>0.9880518536276384</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.762554893034746</v>
+        <v>2.962924076409706</v>
       </c>
       <c r="C3">
-        <v>0.1728416719970767</v>
+        <v>0.5440114130500433</v>
       </c>
       <c r="D3">
-        <v>0.0705480675152188</v>
+        <v>0.1725491603545493</v>
       </c>
       <c r="E3">
-        <v>0.07081749018032824</v>
+        <v>0.0348301800416797</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.753861651198122</v>
+        <v>1.675963288862079</v>
       </c>
       <c r="H3">
-        <v>1.49012166938536</v>
+        <v>0.9882234819078235</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1894037928128114</v>
+        <v>0.1354770075202296</v>
       </c>
       <c r="M3">
-        <v>0.342196095387223</v>
+        <v>0.4698748486488498</v>
       </c>
       <c r="N3">
-        <v>1.950600722405447</v>
+        <v>1.037365792218374</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.695823267415335</v>
+        <v>2.689260262231983</v>
       </c>
       <c r="C4">
-        <v>0.1583462071039321</v>
+        <v>0.4950872156573496</v>
       </c>
       <c r="D4">
-        <v>0.06622556633037391</v>
+        <v>0.1560012929015073</v>
       </c>
       <c r="E4">
-        <v>0.0707766522877975</v>
+        <v>0.03463968505820958</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.734900209384676</v>
+        <v>1.571325246832799</v>
       </c>
       <c r="H4">
-        <v>1.485763588558569</v>
+        <v>0.9452771885277116</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1880063448771594</v>
+        <v>0.1269647289805249</v>
       </c>
       <c r="M4">
-        <v>0.3325507831124312</v>
+        <v>0.4282983349840421</v>
       </c>
       <c r="N4">
-        <v>1.963164353640742</v>
+        <v>1.069377265729052</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.668894504944774</v>
+        <v>2.578680366749154</v>
       </c>
       <c r="C5">
-        <v>0.1524243001255741</v>
+        <v>0.4752482192728849</v>
       </c>
       <c r="D5">
-        <v>0.06447441843340584</v>
+        <v>0.1493219194247217</v>
       </c>
       <c r="E5">
-        <v>0.07076033887781596</v>
+        <v>0.03456412176448875</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.727473946864194</v>
+        <v>1.529667834034484</v>
       </c>
       <c r="H5">
-        <v>1.484195114236513</v>
+        <v>0.9283096215802118</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1874615761136624</v>
+        <v>0.1235488688579451</v>
       </c>
       <c r="M5">
-        <v>0.3286724182590746</v>
+        <v>0.4115152150699402</v>
       </c>
       <c r="N5">
-        <v>1.968454065278294</v>
+        <v>1.082837881324778</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.664438974683151</v>
+        <v>2.560371523422532</v>
       </c>
       <c r="C6">
-        <v>0.1514400628153965</v>
+        <v>0.4719592041893748</v>
       </c>
       <c r="D6">
-        <v>0.06418425972842101</v>
+        <v>0.1482164021728636</v>
       </c>
       <c r="E6">
-        <v>0.07075764981543298</v>
+        <v>0.03455169236658362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.726258934168214</v>
+        <v>1.52280710742852</v>
       </c>
       <c r="H6">
-        <v>1.48394718402227</v>
+        <v>0.9255230126883873</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1873726092647416</v>
+        <v>0.1229847215697148</v>
       </c>
       <c r="M6">
-        <v>0.3280315659928092</v>
+        <v>0.4087374206325478</v>
       </c>
       <c r="N6">
-        <v>1.969342670265775</v>
+        <v>1.085097559658443</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.695459025449168</v>
+        <v>2.687765314866112</v>
       </c>
       <c r="C7">
-        <v>0.1582664029221803</v>
+        <v>0.4948192943878666</v>
       </c>
       <c r="D7">
-        <v>0.06620190820466121</v>
+        <v>0.155910966042569</v>
       </c>
       <c r="E7">
-        <v>0.07077643095253183</v>
+        <v>0.0346386579390936</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.734798840950248</v>
+        <v>1.570759592591799</v>
       </c>
       <c r="H7">
-        <v>1.485741596303086</v>
+        <v>0.9450462608699297</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.187998897932502</v>
+        <v>0.1269184536659864</v>
       </c>
       <c r="M7">
-        <v>0.3324982670516263</v>
+        <v>0.4280713734723776</v>
       </c>
       <c r="N7">
-        <v>1.963235005018809</v>
+        <v>1.069557142408684</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.834672275008927</v>
+        <v>3.258559059840593</v>
       </c>
       <c r="C8">
-        <v>0.1882597724520281</v>
+        <v>0.596622220289504</v>
       </c>
       <c r="D8">
-        <v>0.07519623803088393</v>
+        <v>0.1904541745105917</v>
       </c>
       <c r="E8">
-        <v>0.07086219687499362</v>
+        <v>0.03504121874021138</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.775127692257485</v>
+        <v>1.791279803769527</v>
       </c>
       <c r="H8">
-        <v>1.495483053966154</v>
+        <v>1.036012776770974</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1909794791072414</v>
+        <v>0.1447560348136463</v>
       </c>
       <c r="M8">
-        <v>0.3526673128223052</v>
+        <v>0.5148482568206489</v>
       </c>
       <c r="N8">
-        <v>1.937776071206017</v>
+        <v>1.004683168084746</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.116126155151392</v>
+        <v>4.419137222167251</v>
       </c>
       <c r="C9">
-        <v>0.2466361843429468</v>
+        <v>0.8013783286433807</v>
       </c>
       <c r="D9">
-        <v>0.09317191867349095</v>
+        <v>0.2610331145622524</v>
       </c>
       <c r="E9">
-        <v>0.07104093407083534</v>
+        <v>0.03591688292127815</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.863832824641207</v>
+        <v>2.263404160562857</v>
       </c>
       <c r="H9">
-        <v>1.521182239692678</v>
+        <v>1.23526836883579</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1976055556390293</v>
+        <v>0.1818321829829301</v>
       </c>
       <c r="M9">
-        <v>0.3938790778607029</v>
+        <v>0.6918582032919289</v>
       </c>
       <c r="N9">
-        <v>1.893241385440454</v>
+        <v>0.8922042628691642</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.328180379766422</v>
+        <v>5.308076559822609</v>
       </c>
       <c r="C10">
-        <v>0.2892861966680016</v>
+        <v>0.9568956308087593</v>
       </c>
       <c r="D10">
-        <v>0.1065968026941846</v>
+        <v>0.315402721602922</v>
       </c>
       <c r="E10">
-        <v>0.07117886622272618</v>
+        <v>0.0366341190319357</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.934991037237126</v>
+        <v>2.642743856367474</v>
       </c>
       <c r="H10">
-        <v>1.544131254348315</v>
+        <v>1.398249721227501</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2029525480059249</v>
+        <v>0.2107554592126917</v>
       </c>
       <c r="M10">
-        <v>0.4251862119236094</v>
+        <v>0.827805324883137</v>
       </c>
       <c r="N10">
-        <v>1.863829369761532</v>
+        <v>0.8200941259362864</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.425820301383339</v>
+        <v>5.723209404167221</v>
       </c>
       <c r="C11">
-        <v>0.3086434971294807</v>
+        <v>1.029256779839955</v>
       </c>
       <c r="D11">
-        <v>0.1127542338271894</v>
+        <v>0.340884324495093</v>
       </c>
       <c r="E11">
-        <v>0.07124309298350173</v>
+        <v>0.03698225674975664</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.968689784792048</v>
+        <v>2.824497737401003</v>
       </c>
       <c r="H11">
-        <v>1.555465138569048</v>
+        <v>1.476992094526423</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2054896377184008</v>
+        <v>0.2243823751513929</v>
       </c>
       <c r="M11">
-        <v>0.4396559449965665</v>
+        <v>0.8913753672714861</v>
       </c>
       <c r="N11">
-        <v>1.851172032167781</v>
+        <v>0.7899746542762003</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.462964716851957</v>
+        <v>5.882228847638601</v>
       </c>
       <c r="C12">
-        <v>0.3159676751470784</v>
+        <v>1.056939474003315</v>
       </c>
       <c r="D12">
-        <v>0.1150933327982102</v>
+        <v>0.350660474280474</v>
       </c>
       <c r="E12">
-        <v>0.07126763008881021</v>
+        <v>0.03711781789105473</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.981643707843745</v>
+        <v>2.89485005804849</v>
       </c>
       <c r="H12">
-        <v>1.559886369278587</v>
+        <v>1.507567407907345</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2064654627941138</v>
+        <v>0.2296199037854194</v>
       </c>
       <c r="M12">
-        <v>0.445168283322289</v>
+        <v>0.9157384481371054</v>
       </c>
       <c r="N12">
-        <v>1.846483337284631</v>
+        <v>0.7789940416145029</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.454957407703205</v>
+        <v>5.847895611428953</v>
       </c>
       <c r="C13">
-        <v>0.3143905437206342</v>
+        <v>1.050964159206188</v>
       </c>
       <c r="D13">
-        <v>0.1145892335671022</v>
+        <v>0.3485490328557006</v>
       </c>
       <c r="E13">
-        <v>0.0712623359382647</v>
+        <v>0.03708844612545548</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.978845237241586</v>
+        <v>2.879627004842234</v>
       </c>
       <c r="H13">
-        <v>1.558928414007227</v>
+        <v>1.50094712672859</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2062546300950174</v>
+        <v>0.2284883007226455</v>
       </c>
       <c r="M13">
-        <v>0.4439796335430657</v>
+        <v>0.9104777730940299</v>
       </c>
       <c r="N13">
-        <v>1.847488482051247</v>
+        <v>0.7813393334759979</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.428872774370518</v>
+        <v>5.736253916564351</v>
       </c>
       <c r="C14">
-        <v>0.3092461799830915</v>
+        <v>1.031528314659568</v>
       </c>
       <c r="D14">
-        <v>0.1129465233594686</v>
+        <v>0.3416859537958743</v>
       </c>
       <c r="E14">
-        <v>0.07124510732361244</v>
+        <v>0.03699333100229385</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.969751634096582</v>
+        <v>2.830253811856409</v>
       </c>
       <c r="H14">
-        <v>1.555826279533164</v>
+        <v>1.479491773638387</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2055696169681482</v>
+        <v>0.2248116598916283</v>
       </c>
       <c r="M14">
-        <v>0.4401087866577384</v>
+        <v>0.8933736498341958</v>
       </c>
       <c r="N14">
-        <v>1.850784195952571</v>
+        <v>0.7890625130024134</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.412917399362811</v>
+        <v>5.668115540754229</v>
       </c>
       <c r="C15">
-        <v>0.3060943369588358</v>
+        <v>1.019661468137485</v>
       </c>
       <c r="D15">
-        <v>0.1119412864023275</v>
+        <v>0.3374992469987887</v>
       </c>
       <c r="E15">
-        <v>0.07123458249396908</v>
+        <v>0.03693557493324917</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.964206722680188</v>
+        <v>2.800216576972332</v>
       </c>
       <c r="H15">
-        <v>1.553942997992721</v>
+        <v>1.466451425657169</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2051519918673108</v>
+        <v>0.2225699908497489</v>
       </c>
       <c r="M15">
-        <v>0.4377420796720557</v>
+        <v>0.8829360543417621</v>
       </c>
       <c r="N15">
-        <v>1.852816521943218</v>
+        <v>0.7938497765367956</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.321823141434436</v>
+        <v>5.281185412033494</v>
       </c>
       <c r="C16">
-        <v>0.2880202898515449</v>
+        <v>0.9522031896567</v>
       </c>
       <c r="D16">
-        <v>0.1061954282818647</v>
+        <v>0.3137540860129775</v>
       </c>
       <c r="E16">
-        <v>0.07117469889450856</v>
+        <v>0.03661185515140897</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.932815639859996</v>
+        <v>2.631067625777291</v>
       </c>
       <c r="H16">
-        <v>1.543408616256528</v>
+        <v>1.393204204343903</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2027888525905723</v>
+        <v>0.2098751665552214</v>
       </c>
       <c r="M16">
-        <v>0.4242451835889085</v>
+        <v>0.8236891058901179</v>
       </c>
       <c r="N16">
-        <v>1.864671133756552</v>
+        <v>0.8221197307278842</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.266241707566451</v>
+        <v>5.046752257001117</v>
       </c>
       <c r="C17">
-        <v>0.2769213385404612</v>
+        <v>0.9112661869313285</v>
       </c>
       <c r="D17">
-        <v>0.1026835540840523</v>
+        <v>0.2993918190584139</v>
       </c>
       <c r="E17">
-        <v>0.07113834353024107</v>
+        <v>0.03641924948456055</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.913899836994744</v>
+        <v>2.529791414786331</v>
       </c>
       <c r="H17">
-        <v>1.537175679572755</v>
+        <v>1.349512119703434</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2013659816919926</v>
+        <v>0.2022141641656532</v>
       </c>
       <c r="M17">
-        <v>0.4160237903488948</v>
+        <v>0.7878136826515032</v>
       </c>
       <c r="N17">
-        <v>1.872128910002701</v>
+        <v>0.8401760174572814</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.234383291776169</v>
+        <v>4.91290613661107</v>
       </c>
       <c r="C18">
-        <v>0.2705333130896292</v>
+        <v>0.8878690868413344</v>
       </c>
       <c r="D18">
-        <v>0.1006683491301317</v>
+        <v>0.291200201492245</v>
       </c>
       <c r="E18">
-        <v>0.07111757208102532</v>
+        <v>0.03631048536320769</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.903144899113016</v>
+        <v>2.472391349269685</v>
       </c>
       <c r="H18">
-        <v>1.533674786427866</v>
+        <v>1.32480827831867</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2005574387031288</v>
+        <v>0.1978513040126444</v>
       </c>
       <c r="M18">
-        <v>0.4113165078095662</v>
+        <v>0.7673388236501282</v>
       </c>
       <c r="N18">
-        <v>1.876486385364231</v>
+        <v>0.8508115062288155</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.22361552918693</v>
+        <v>4.867751073886325</v>
       </c>
       <c r="C19">
-        <v>0.2683697044082578</v>
+        <v>0.8799714028907033</v>
       </c>
       <c r="D19">
-        <v>0.09998684302671279</v>
+        <v>0.2884379970516449</v>
       </c>
       <c r="E19">
-        <v>0.07111056304532681</v>
+        <v>0.03627398995711673</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.899524861568437</v>
+        <v>2.453097084799026</v>
       </c>
       <c r="H19">
-        <v>1.532503870698235</v>
+        <v>1.316514552354221</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2002853717211082</v>
+        <v>0.1963813146459898</v>
       </c>
       <c r="M19">
-        <v>0.4097263805779008</v>
+        <v>0.7604326248424016</v>
       </c>
       <c r="N19">
-        <v>1.877973408886447</v>
+        <v>0.8544543284834987</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.272146994943625</v>
+        <v>5.071603371406184</v>
       </c>
       <c r="C20">
-        <v>0.2781032730786137</v>
+        <v>0.9156082699543333</v>
       </c>
       <c r="D20">
-        <v>0.1030569081096218</v>
+        <v>0.3009134160679281</v>
       </c>
       <c r="E20">
-        <v>0.07114219919391829</v>
+        <v>0.03643953994932758</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.91590051287352</v>
+        <v>2.54048293357954</v>
       </c>
       <c r="H20">
-        <v>1.537830474154362</v>
+        <v>1.354118402742813</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2015164286169266</v>
+        <v>0.2030251170482842</v>
       </c>
       <c r="M20">
-        <v>0.4168967508619374</v>
+        <v>0.7916158624303833</v>
       </c>
       <c r="N20">
-        <v>1.871327979873485</v>
+        <v>0.838227755303329</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.436529831340238</v>
+        <v>5.768994113928727</v>
       </c>
       <c r="C21">
-        <v>0.3107573644596471</v>
+        <v>1.03722904210926</v>
       </c>
       <c r="D21">
-        <v>0.1134288246174577</v>
+        <v>0.343698199349916</v>
       </c>
       <c r="E21">
-        <v>0.07125016190445699</v>
+        <v>0.03702116225339225</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.972417394217956</v>
+        <v>2.844712732997323</v>
       </c>
       <c r="H21">
-        <v>1.556733935550568</v>
+        <v>1.485772352932059</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.205770412330196</v>
+        <v>0.225889396086643</v>
       </c>
       <c r="M21">
-        <v>0.4412448520789809</v>
+        <v>0.898389298546526</v>
       </c>
       <c r="N21">
-        <v>1.849813328505952</v>
+        <v>0.7867821567618094</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.544956752231542</v>
+        <v>6.235526987871992</v>
       </c>
       <c r="C22">
-        <v>0.3320638383926848</v>
+        <v>1.11838142387893</v>
       </c>
       <c r="D22">
-        <v>0.1202507623853677</v>
+        <v>0.3724105177402492</v>
       </c>
       <c r="E22">
-        <v>0.0713219811797785</v>
+        <v>0.03742336935679269</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.010479936050842</v>
+        <v>3.052555034096201</v>
       </c>
       <c r="H22">
-        <v>1.569842654815687</v>
+        <v>1.576283844394453</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2086385724181525</v>
+        <v>0.2412886222785886</v>
       </c>
       <c r="M22">
-        <v>0.4573499751690093</v>
+        <v>0.9698887781571202</v>
       </c>
       <c r="N22">
-        <v>1.836360808887768</v>
+        <v>0.7556586716348903</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.486995951837116</v>
+        <v>5.985446743304351</v>
       </c>
       <c r="C23">
-        <v>0.320695237231007</v>
+        <v>1.074898477658991</v>
       </c>
       <c r="D23">
-        <v>0.1166057485665135</v>
+        <v>0.3570105781918045</v>
       </c>
       <c r="E23">
-        <v>0.07128353366432716</v>
+        <v>0.03720646259198812</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.990061624783237</v>
+        <v>2.94072630593044</v>
       </c>
       <c r="H23">
-        <v>1.562777025917683</v>
+        <v>1.527532301770208</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2070997262322862</v>
+        <v>0.2330244668072226</v>
       </c>
       <c r="M23">
-        <v>0.4487367164310001</v>
+        <v>0.9315556614690692</v>
       </c>
       <c r="N23">
-        <v>1.843484824483163</v>
+        <v>0.7720268621759985</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.269476915314044</v>
+        <v>5.060365297751105</v>
       </c>
       <c r="C24">
-        <v>0.2775689425875782</v>
+        <v>0.9136447875791305</v>
       </c>
       <c r="D24">
-        <v>0.1028881028745587</v>
+        <v>0.3002252996418946</v>
       </c>
       <c r="E24">
-        <v>0.07114045564452898</v>
+        <v>0.03643036054478177</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.914995633650364</v>
+        <v>2.535646743419449</v>
       </c>
       <c r="H24">
-        <v>1.537534184594307</v>
+        <v>1.352034615615793</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.20144838202215</v>
+        <v>0.2026583565481417</v>
       </c>
       <c r="M24">
-        <v>0.4165020252941005</v>
+        <v>0.7898964316047739</v>
       </c>
       <c r="N24">
-        <v>1.871689862697714</v>
+        <v>0.8391077742110156</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.03906833187159</v>
+        <v>4.099681041964288</v>
       </c>
       <c r="C25">
-        <v>0.2308879563119319</v>
+        <v>0.7452495173691318</v>
       </c>
       <c r="D25">
-        <v>0.08827159958416075</v>
+        <v>0.2415599130812325</v>
       </c>
       <c r="E25">
-        <v>0.07099143290356569</v>
+        <v>0.03566875121887003</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.838793307157516</v>
+        <v>2.13063536878397</v>
       </c>
       <c r="H25">
-        <v>1.513518984871752</v>
+        <v>1.178757506465246</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1957291340121898</v>
+        <v>0.1715384174456389</v>
       </c>
       <c r="M25">
-        <v>0.3825507504169465</v>
+        <v>0.643073141089296</v>
       </c>
       <c r="N25">
-        <v>1.90470993485097</v>
+        <v>0.9209065101303935</v>
       </c>
       <c r="O25">
         <v>0</v>
